--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1177310.685801072</v>
+        <v>1262677.991834332</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673262</v>
+        <v>4171427.157673264</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>116.9725659584294</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>227.9187527607135</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,10 +803,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.5979348845814313</v>
       </c>
       <c r="Y3" t="n">
-        <v>71.34586682151661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>31.99686513934777</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>43.77558537970202</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>133.5316270783949</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539872</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>58.99021597020533</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -978,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
@@ -993,7 +995,7 @@
         <v>96.62520054253652</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813373</v>
+        <v>33.74703566813371</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>143.2598843822824</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>147.7513549179971</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>55.35942387104955</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
         <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>65.24080982732535</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>388.3096430112814</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>175.6511249261807</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>93.40336418555572</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>102.1009313817572</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>152.4962006593515</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>85.17289288835173</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>101.6599086699125</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>227.7172236952946</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>196.98992439718</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>342.0399407833768</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1898,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>251.6619297099721</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>139.8285741207142</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>91.2960708817743</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>121.3416305177546</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>99.50249420969799</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>121.3416305177537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>13.02719212039585</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>59.35991151980221</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>29.71145624902145</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>229.796569204137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>106.5867442799596</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926791</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>232.8259547974229</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492373</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>61.42978662487853</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>224.7411810187697</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>350.3931892789097</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.380068175848154</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>133.6678680078464</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>357.9103591257398</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.18739105194167</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>114.2656173771019</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>217.091419992848</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>155.8380202720375</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>109.9022384814636</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>87.83762944231071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>9.099193441180152</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>74.55681854024786</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>77.31354443380415</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>80.26046424059092</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>105.4771979831539</v>
+        <v>175.0602991046308</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>43.33214111914459</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4153,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>252.0077923028904</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388466</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388466</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="F2" t="n">
+        <v>634.1670622275112</v>
+      </c>
+      <c r="G2" t="n">
         <v>403.9460998429521</v>
-      </c>
-      <c r="G2" t="n">
-        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917602</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052543</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388466</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>900.5447187946892</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>325.1841858830662</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="C3" t="n">
-        <v>325.1841858830662</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="D3" t="n">
-        <v>325.1841858830662</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>611.574711881066</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742819</v>
+        <v>376.4226036493233</v>
       </c>
       <c r="W3" t="n">
-        <v>565.4660550460803</v>
+        <v>122.1852469211217</v>
       </c>
       <c r="X3" t="n">
-        <v>565.4660550460803</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="Y3" t="n">
-        <v>493.3995229031343</v>
+        <v>121.5812722902314</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.2115014322552</v>
+        <v>68.6416197316658</v>
       </c>
       <c r="C4" t="n">
-        <v>183.2115014322552</v>
+        <v>68.6416197316658</v>
       </c>
       <c r="D4" t="n">
-        <v>183.2115014322552</v>
+        <v>68.6416197316658</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092332</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>227.4292644420552</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="V4" t="n">
-        <v>183.2115014322552</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="W4" t="n">
-        <v>183.2115014322552</v>
+        <v>296.6311706296831</v>
       </c>
       <c r="X4" t="n">
-        <v>183.2115014322552</v>
+        <v>68.6416197316658</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.2115014322552</v>
+        <v>68.6416197316658</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1247.08590276616</v>
+        <v>1091.140672939425</v>
       </c>
       <c r="C5" t="n">
-        <v>1247.08590276616</v>
+        <v>1091.140672939425</v>
       </c>
       <c r="D5" t="n">
-        <v>1247.08590276616</v>
+        <v>1091.140672939425</v>
       </c>
       <c r="E5" t="n">
-        <v>861.2976501679159</v>
+        <v>1091.140672939425</v>
       </c>
       <c r="F5" t="n">
-        <v>450.3117453783083</v>
+        <v>680.1547681498171</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135726</v>
+        <v>263.708459162866</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135726</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135726</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780275</v>
+        <v>108.4604468780276</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818685</v>
+        <v>270.9975490818692</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373972</v>
+        <v>509.5409587373985</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176465</v>
+        <v>806.6359018176476</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058967</v>
+        <v>1113.151960058969</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836694</v>
+        <v>1389.251120836696</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921685</v>
+        <v>1590.394365921687</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567863</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567863</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567863</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567863</v>
+        <v>1481.280004915236</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567863</v>
+        <v>1481.280004915236</v>
       </c>
       <c r="V5" t="n">
-        <v>1633.685742830282</v>
+        <v>1481.280004915236</v>
       </c>
       <c r="W5" t="n">
-        <v>1633.685742830282</v>
+        <v>1481.280004915236</v>
       </c>
       <c r="X5" t="n">
-        <v>1633.685742830282</v>
+        <v>1481.280004915236</v>
       </c>
       <c r="Y5" t="n">
-        <v>1633.685742830282</v>
+        <v>1091.140672939425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>782.877785583716</v>
+        <v>626.0401822663969</v>
       </c>
       <c r="C6" t="n">
-        <v>608.424756302589</v>
+        <v>451.5871529852698</v>
       </c>
       <c r="D6" t="n">
-        <v>608.424756302589</v>
+        <v>302.6527433240186</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1873012971336</v>
+        <v>302.6527433240186</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6527433240185</v>
+        <v>302.6527433240186</v>
       </c>
       <c r="G6" t="n">
         <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765397</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135726</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="J6" t="n">
-        <v>184.305991640249</v>
+        <v>59.4758666532443</v>
       </c>
       <c r="K6" t="n">
-        <v>320.8449933464231</v>
+        <v>443.2235805075022</v>
       </c>
       <c r="L6" t="n">
-        <v>531.1136064691577</v>
+        <v>664.0526884004778</v>
       </c>
       <c r="M6" t="n">
-        <v>795.8440284258985</v>
+        <v>928.7831103572187</v>
       </c>
       <c r="N6" t="n">
-        <v>1214.928803768945</v>
+        <v>1214.928803768946</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.476414943142</v>
+        <v>1454.476414943144</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.401425557611</v>
+        <v>1627.401425557612</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232576</v>
+        <v>1693.078019232578</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567863</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843108</v>
+        <v>1550.18015784311</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178447</v>
+        <v>1354.574272178449</v>
       </c>
       <c r="U6" t="n">
-        <v>1354.574272178447</v>
+        <v>1354.574272178449</v>
       </c>
       <c r="V6" t="n">
-        <v>1354.574272178447</v>
+        <v>1354.574272178449</v>
       </c>
       <c r="W6" t="n">
-        <v>1100.336915450246</v>
+        <v>1209.867318256952</v>
       </c>
       <c r="X6" t="n">
-        <v>1100.336915450246</v>
+        <v>1002.015818051419</v>
       </c>
       <c r="Y6" t="n">
-        <v>951.093122603784</v>
+        <v>794.255519286465</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335.6784255692636</v>
+        <v>237.6971399445075</v>
       </c>
       <c r="C7" t="n">
-        <v>335.6784255692636</v>
+        <v>237.6971399445075</v>
       </c>
       <c r="D7" t="n">
-        <v>185.5617861569278</v>
+        <v>237.6971399445075</v>
       </c>
       <c r="E7" t="n">
-        <v>185.5617861569278</v>
+        <v>89.78404636211442</v>
       </c>
       <c r="F7" t="n">
-        <v>185.5617861569278</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="G7" t="n">
-        <v>185.5617861569278</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135726</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135726</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652183</v>
+        <v>36.28512133652189</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128595</v>
+        <v>170.0982437128596</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119583</v>
+        <v>396.8594047119585</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191532</v>
+        <v>646.3363778191535</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361645</v>
+        <v>895.315962536165</v>
       </c>
       <c r="O7" t="n">
         <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580465</v>
+        <v>1268.828805580466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397013</v>
+        <v>1178.322155933645</v>
       </c>
       <c r="S7" t="n">
-        <v>1093.436447486383</v>
+        <v>975.8964400230157</v>
       </c>
       <c r="T7" t="n">
-        <v>1027.536639579994</v>
+        <v>975.8964400230157</v>
       </c>
       <c r="U7" t="n">
-        <v>1027.536639579994</v>
+        <v>975.8964400230157</v>
       </c>
       <c r="V7" t="n">
-        <v>1027.536639579994</v>
+        <v>975.8964400230157</v>
       </c>
       <c r="W7" t="n">
-        <v>738.1194695430335</v>
+        <v>686.479269986055</v>
       </c>
       <c r="X7" t="n">
-        <v>738.1194695430335</v>
+        <v>458.4897190880376</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.3268903995033</v>
+        <v>237.6971399445075</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.725694231566</v>
+        <v>1610.685699760054</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>1610.685699760054</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>1610.685699760054</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>1224.89744716181</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>813.9115423722023</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4829,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2260.214742213312</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2006.633681477492</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2006.633681477492</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>1653.865026207378</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X8" t="n">
-        <v>1653.865026207378</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="Y8" t="n">
-        <v>1263.725694231566</v>
+        <v>1610.685699760054</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735143</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.0080784229704</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C10" t="n">
-        <v>770.0080784229704</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>619.8914390106346</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282415</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1542.099287563835</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1542.099287563835</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V10" t="n">
-        <v>1287.414799357948</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W10" t="n">
-        <v>997.9976293209877</v>
+        <v>504.0139700109311</v>
       </c>
       <c r="X10" t="n">
-        <v>770.0080784229704</v>
+        <v>400.8817160899642</v>
       </c>
       <c r="Y10" t="n">
-        <v>770.0080784229704</v>
+        <v>400.8817160899642</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2098.941407629261</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C11" t="n">
-        <v>1729.978890688849</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.080739605072</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2098.941407629261</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5194,7 +5196,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1252.833343223197</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>1150.146566788942</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>791.8808681821918</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
         <v>406.0926155839475</v>
@@ -5273,13 +5275,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5291,13 +5293,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>2755.806928794325</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W14" t="n">
-        <v>2403.038273524211</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X14" t="n">
-        <v>2029.572515263131</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y14" t="n">
-        <v>1639.433183287319</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5354,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,10 +5457,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
         <v>1645.778206672847</v>
@@ -5470,16 +5472,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5546,19 +5548,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>3071.401852205159</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2718.633196935045</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>2345.167438673965</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y17" t="n">
-        <v>2345.167438673965</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="18">
@@ -5583,19 +5585,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
         <v>765.151745215813</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>385.5649387724261</v>
+        <v>913.8018420618822</v>
       </c>
       <c r="C19" t="n">
-        <v>216.6287558445192</v>
+        <v>913.8018420618822</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5704,19 +5706,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W19" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X19" t="n">
-        <v>788.005982746196</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="Y19" t="n">
-        <v>567.2134036026658</v>
+        <v>913.8018420618822</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796256</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C20" t="n">
-        <v>552.807938939214</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324635</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218342</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,10 +5752,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5762,13 +5764,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5795,7 +5797,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>1575.942324366272</v>
       </c>
     </row>
     <row r="21">
@@ -5820,37 +5822,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2405.758056700423</v>
+        <v>2151.073568494536</v>
       </c>
       <c r="C22" t="n">
-        <v>2236.821873772516</v>
+        <v>1982.137385566629</v>
       </c>
       <c r="D22" t="n">
-        <v>2086.70523436018</v>
+        <v>1832.020746154294</v>
       </c>
       <c r="E22" t="n">
-        <v>1938.792140777787</v>
+        <v>1684.1076525719</v>
       </c>
       <c r="F22" t="n">
-        <v>1791.902193279877</v>
+        <v>1537.21770507399</v>
       </c>
       <c r="G22" t="n">
-        <v>1624.199356654596</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H22" t="n">
-        <v>1477.982169872454</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I22" t="n">
         <v>1464.823389952861</v>
@@ -5944,16 +5946,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="W22" t="n">
-        <v>3036.18865157221</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X22" t="n">
-        <v>2808.199100674193</v>
+        <v>2553.514612468306</v>
       </c>
       <c r="Y22" t="n">
-        <v>2587.406521530663</v>
+        <v>2332.722033324776</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1575.942324366272</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C23" t="n">
-        <v>1575.942324366272</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -5999,16 +6001,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.60582160917</v>
@@ -6020,19 +6022,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>1575.942324366272</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6084,10 +6086,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1007.446783179745</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="C25" t="n">
-        <v>838.5106002518377</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="D25" t="n">
-        <v>688.3939608395019</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="E25" t="n">
-        <v>540.4808672571088</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="F25" t="n">
-        <v>393.5909197591984</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="G25" t="n">
-        <v>225.8880831339174</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H25" t="n">
-        <v>79.67089635177516</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088492</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088492</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V25" t="n">
-        <v>1927.294548088492</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W25" t="n">
-        <v>1637.877378051532</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="X25" t="n">
-        <v>1409.887827153514</v>
+        <v>1929.158833060188</v>
       </c>
       <c r="Y25" t="n">
-        <v>1189.095248009984</v>
+        <v>1708.366253916658</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1590.514489367197</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>922.5820433455031</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>511.5961385558955</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>96.52368840089196</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>96.52368840089196</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>3093.488074938325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2740.71941966821</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>2367.25366140713</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.114329431319</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1464.823389952861</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="C28" t="n">
-        <v>1464.823389952861</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="D28" t="n">
-        <v>1464.823389952861</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.823389952861</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952861</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I28" t="n">
         <v>1464.823389952861</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K28" t="n">
         <v>1713.933205348673</v>
@@ -6394,40 +6396,40 @@
         <v>2374.650049396718</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O28" t="n">
         <v>3015.388025022996</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R28" t="n">
         <v>3235.775364366698</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193524</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T28" t="n">
-        <v>2822.32286476305</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U28" t="n">
         <v>2533.219997888694</v>
       </c>
       <c r="V28" t="n">
-        <v>2278.535509682807</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W28" t="n">
-        <v>1989.118339645846</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="X28" t="n">
-        <v>1761.128788747829</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="Y28" t="n">
-        <v>1540.336209604299</v>
+        <v>2170.872131622242</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1127.748203495403</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C29" t="n">
-        <v>1127.748203495403</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D29" t="n">
-        <v>1127.748203495403</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="E29" t="n">
-        <v>1127.748203495403</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="F29" t="n">
-        <v>716.762298705796</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>301.6898485507924</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218342</v>
@@ -6491,22 +6493,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1514.348043559525</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6558,10 +6560,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1464.823389952861</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C31" t="n">
-        <v>1464.823389952861</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D31" t="n">
-        <v>1464.823389952861</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.823389952861</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.823389952861</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>2822.322864763051</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U31" t="n">
-        <v>2533.219997888694</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V31" t="n">
-        <v>2278.535509682808</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W31" t="n">
-        <v>1989.118339645847</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X31" t="n">
-        <v>1761.12878874783</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y31" t="n">
-        <v>1540.336209604299</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>1274.245689520978</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2782.326111562134</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V32" t="n">
-        <v>2782.326111562134</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W32" t="n">
-        <v>2782.326111562134</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X32" t="n">
-        <v>2782.326111562134</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y32" t="n">
-        <v>2392.186779586323</v>
+        <v>1660.8455295851</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1640.204086189706</v>
+        <v>2170.872131622241</v>
       </c>
       <c r="C34" t="n">
-        <v>1471.267903261799</v>
+        <v>2170.872131622241</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.823389952861</v>
+        <v>2170.872131622241</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.823389952861</v>
+        <v>2022.959038039848</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.823389952861</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.823389952861</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L34" t="n">
         <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T34" t="n">
-        <v>3103.839206178697</v>
+        <v>2909.07143170075</v>
       </c>
       <c r="U34" t="n">
-        <v>2814.73633930434</v>
+        <v>2909.07143170075</v>
       </c>
       <c r="V34" t="n">
-        <v>2560.051851098453</v>
+        <v>2909.07143170075</v>
       </c>
       <c r="W34" t="n">
-        <v>2270.634681061493</v>
+        <v>2619.654261663789</v>
       </c>
       <c r="X34" t="n">
-        <v>2042.645130163475</v>
+        <v>2391.664710765771</v>
       </c>
       <c r="Y34" t="n">
-        <v>1821.852551019945</v>
+        <v>2170.872131622241</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3287.032699334482</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3287.032699334482</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3033.502222608318</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V35" t="n">
-        <v>2702.439335264748</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W35" t="n">
-        <v>2349.670679994633</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X35" t="n">
-        <v>1976.204921733553</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y35" t="n">
-        <v>1976.204921733553</v>
+        <v>1952.040104645722</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7026,16 +7028,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.4780323548191</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C37" t="n">
-        <v>364.5418494269122</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D37" t="n">
-        <v>214.4252100145765</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088492</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088492</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="U37" t="n">
-        <v>1708.010285469454</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="V37" t="n">
-        <v>1453.325797263567</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.908627226606</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="X37" t="n">
-        <v>935.919076328589</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y37" t="n">
-        <v>715.1264971850588</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796247</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>764.3583141906979</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>406.0926155839475</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794323</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450752</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919558</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943746</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,10 +7271,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>496.5773008749145</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>327.6411179470076</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>177.5244785346719</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>177.5244785346719</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.46409084602</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.46409084602</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.779602640133</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.779602640133</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>899.0183448486844</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>678.2257657051542</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796247</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>552.807938939213</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>477.498021221791</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218339</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939507</v>
@@ -7430,31 +7432,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794323</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450752</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919558</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943746</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7484,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7500,16 +7502,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>509.7358901245717</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C43" t="n">
-        <v>509.7358901245717</v>
+        <v>294.723245171594</v>
       </c>
       <c r="D43" t="n">
-        <v>359.619250712236</v>
+        <v>144.6066057592583</v>
       </c>
       <c r="E43" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621292</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251686</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X43" t="n">
-        <v>509.7358901245717</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y43" t="n">
-        <v>509.7358901245717</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2345.167438673965</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C44" t="n">
-        <v>1976.204921733553</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7661,7 +7663,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7673,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136265</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136265</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W44" t="n">
-        <v>3215.315153136265</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="X44" t="n">
-        <v>2841.849394875185</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y44" t="n">
-        <v>2451.710062899373</v>
+        <v>1771.429619686766</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218339</v>
@@ -7728,10 +7730,10 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7740,13 +7742,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>625.6709106036544</v>
+        <v>2383.578154064436</v>
       </c>
       <c r="C46" t="n">
-        <v>625.6709106036544</v>
+        <v>2214.641971136529</v>
       </c>
       <c r="D46" t="n">
-        <v>625.6709106036544</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E46" t="n">
-        <v>477.7578170212613</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959802</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621296</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="W46" t="n">
-        <v>625.6709106036544</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="X46" t="n">
-        <v>625.6709106036544</v>
+        <v>2786.019198038206</v>
       </c>
       <c r="Y46" t="n">
-        <v>625.6709106036544</v>
+        <v>2565.226618894676</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157965</v>
+        <v>25.82445471157959</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>14.75946716602934</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>10.66716643458668</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>134.2819009407258</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515142</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>202.1868409613314</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>209.4348714989687</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>263.612983101095</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>100.0350347748403</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>21.59472895491476</v>
       </c>
     </row>
     <row r="17">
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>12.64310083730612</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23786,10 +23788,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>76.09032876016281</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.786898897498133</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>134.4135845072628</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>264.896308138299</v>
       </c>
     </row>
     <row r="21">
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>94.35543628911051</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>83.32522828944181</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24184,7 +24186,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>255.180547410985</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>264.8963081382999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.32522828944226</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>166.3497438692349</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>11.86547352390453</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>97.9556892659979</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270136</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>179.9362540566314</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>307.2767095024435</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>61.78180958989753</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>190.7078566989495</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>26.2539909401323</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>35.8447493771439</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2354048423642</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>85.88108126832282</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>24.8234825377408</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>71.00037073623417</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>75.50340795434003</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>69.12041821276489</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>209.43487149897</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>82.87935969080525</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>35.51880954146768</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>137.8720259467264</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>373.6346482223004</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>280.1262230804351</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276502</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>145.4491911484462</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>277.2566436803267</v>
+        <v>207.6735425588497</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>105.2833318990678</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>34.51520603370057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793442.4871083027</v>
+        <v>793442.4871083025</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793442.4871083025</v>
+        <v>793442.4871083027</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>793442.4871083024</v>
+        <v>793442.4871083025</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793442.4871083025</v>
+        <v>793442.4871083024</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>793442.4871083024</v>
+        <v>793442.4871083025</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>793442.4871083024</v>
+        <v>793442.4871083027</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>793442.4871083023</v>
+        <v>793442.4871083024</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>793442.4871083024</v>
+        <v>793442.4871083025</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185704</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185702</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185701</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185701</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="F2" t="n">
+        <v>409196.518765105</v>
+      </c>
+      <c r="G2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="H2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="I2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="J2" t="n">
         <v>409196.5187651049</v>
-      </c>
-      <c r="G2" t="n">
-        <v>409196.5187651049</v>
-      </c>
-      <c r="H2" t="n">
-        <v>409196.5187651049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>409196.5187651049</v>
-      </c>
-      <c r="J2" t="n">
-        <v>409196.5187651048</v>
       </c>
       <c r="K2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="L2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="M2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="N2" t="n">
+        <v>409196.5187651047</v>
+      </c>
+      <c r="O2" t="n">
         <v>409196.5187651048</v>
       </c>
-      <c r="O2" t="n">
-        <v>409196.5187651049</v>
-      </c>
       <c r="P2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651047</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.624173949</v>
+        <v>176672.6241739494</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819086</v>
+        <v>223886.3093819082</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911411</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640783</v>
+        <v>41076.98154640791</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946842</v>
+        <v>54988.29121946825</v>
       </c>
       <c r="M3" t="n">
         <v>47552.26579341491</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307045</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>201669.5195869429</v>
+        <v>201669.5195869428</v>
       </c>
       <c r="D4" t="n">
         <v>137930.4104072219</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.40310209149</v>
       </c>
       <c r="G4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="H4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="I4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="J4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.40310209149</v>
       </c>
       <c r="K4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="L4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="M4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="N4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091499</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923107</v>
+        <v>75746.8716792311</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26488,28 +26490,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.34056139327</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-499948.6882075936</v>
+        <v>-499948.6882075934</v>
       </c>
       <c r="C6" t="n">
-        <v>38536.0464784471</v>
+        <v>38536.04647844694</v>
       </c>
       <c r="D6" t="n">
-        <v>37870.56968959473</v>
+        <v>37870.56968959533</v>
       </c>
       <c r="E6" t="n">
-        <v>143046.7952844296</v>
+        <v>143046.7952844294</v>
       </c>
       <c r="F6" t="n">
-        <v>325119.7751016201</v>
+        <v>325119.7751016204</v>
       </c>
       <c r="G6" t="n">
-        <v>325119.7751016201</v>
+        <v>325119.77510162</v>
       </c>
       <c r="H6" t="n">
-        <v>325119.7751016202</v>
+        <v>325119.7751016199</v>
       </c>
       <c r="I6" t="n">
-        <v>325119.7751016201</v>
+        <v>325119.7751016204</v>
       </c>
       <c r="J6" t="n">
-        <v>256120.6206825059</v>
+        <v>256120.620682506</v>
       </c>
       <c r="K6" t="n">
         <v>284042.7935552123</v>
       </c>
       <c r="L6" t="n">
-        <v>270131.4838821517</v>
+        <v>270131.4838821519</v>
       </c>
       <c r="M6" t="n">
-        <v>277567.5093082051</v>
+        <v>277567.5093082052</v>
       </c>
       <c r="N6" t="n">
-        <v>325119.7751016201</v>
+        <v>325119.7751016199</v>
       </c>
       <c r="O6" t="n">
         <v>325119.7751016201</v>
       </c>
       <c r="P6" t="n">
-        <v>325119.7751016201</v>
+        <v>325119.7751016199</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908053</v>
+        <v>751.4467899908055</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26787,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919658</v>
+        <v>423.3179548919662</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022924</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213271</v>
+        <v>137.3917762213273</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267341</v>
+        <v>182.6181021267338</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904596</v>
+        <v>159.60407489046</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080731</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,10 +27038,10 @@
         <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904597</v>
+        <v>159.60407489046</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080731</v>
+        <v>217.2668772080724</v>
       </c>
       <c r="M4" t="n">
         <v>190.816623302254</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904596</v>
+        <v>159.60407489046</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080731</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>289.903479783282</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>184.9154218849965</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27439,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.175050318896</v>
       </c>
       <c r="Y3" t="n">
-        <v>134.3368289557878</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>114.4370975072214</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
-        <v>208.362057944126</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>175.0054687539819</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539876</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>268.7620424999296</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,13 +27700,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27755,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>108.4350987786372</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>57.93134085930728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>90.06162415188169</v>
       </c>
       <c r="G7" t="n">
         <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
         <v>114.699885070052</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887347</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>156.9149436780762</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
         <v>286.2451165574754</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>23.23805976167262</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>31.00706005405303</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>127.3453318116562</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>123.6087240072799</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31039,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,34 +31278,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053486</v>
+        <v>3.020891618053487</v>
       </c>
       <c r="H5" t="n">
         <v>30.93770628339028</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050071</v>
+        <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677673</v>
+        <v>256.3943999677674</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599715</v>
+        <v>384.2687421599716</v>
       </c>
       <c r="L5" t="n">
-        <v>476.719354015976</v>
+        <v>476.7193540159761</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285346</v>
+        <v>530.4421353285348</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383291</v>
+        <v>539.0252436383294</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113097</v>
+        <v>508.9862526113099</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906142</v>
+        <v>434.4079907906143</v>
       </c>
       <c r="Q5" t="n">
         <v>326.2223097190737</v>
@@ -31312,10 +31314,10 @@
         <v>189.7610831025525</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639389</v>
+        <v>68.83856774639391</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802914</v>
+        <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
         <v>0.2416713294442789</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61631951054626</v>
+        <v>1.616319510546261</v>
       </c>
       <c r="H6" t="n">
         <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328134</v>
+        <v>55.64959718328137</v>
       </c>
       <c r="J6" t="n">
         <v>152.7067481433202</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499196</v>
+        <v>261.0001553499197</v>
       </c>
       <c r="L6" t="n">
-        <v>350.946918287687</v>
+        <v>350.9469182876871</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449888</v>
+        <v>409.5385005449889</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345733</v>
+        <v>420.3777660345734</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587851</v>
+        <v>384.5635284587852</v>
       </c>
       <c r="P6" t="n">
         <v>308.6461353077329</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970981</v>
+        <v>206.3217676970982</v>
       </c>
       <c r="R6" t="n">
         <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633074</v>
+        <v>30.02242599633075</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807074</v>
+        <v>6.514901886807076</v>
       </c>
       <c r="U6" t="n">
         <v>0.1063368099043593</v>
@@ -31434,31 +31436,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950632</v>
+        <v>1.355067981950633</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952472</v>
+        <v>12.04778623952473</v>
       </c>
       <c r="I7" t="n">
-        <v>40.7505898572063</v>
+        <v>40.75058985720631</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390971</v>
+        <v>95.80330632390974</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029916</v>
+        <v>157.4342619029917</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165513</v>
+        <v>201.4616525165514</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706795</v>
+        <v>212.4130655706796</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379546</v>
+        <v>207.3623576379547</v>
       </c>
       <c r="O7" t="n">
-        <v>191.532699848804</v>
+        <v>191.5326998488041</v>
       </c>
       <c r="P7" t="n">
         <v>163.889313017011</v>
@@ -31467,16 +31469,16 @@
         <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843478</v>
+        <v>60.9287839884348</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544874</v>
+        <v>23.61513928544875</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879973</v>
+        <v>5.789835922879975</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548913</v>
+        <v>0.07391279901548915</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32801,7 +32803,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -33278,7 +33280,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33746,7 +33748,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34220,7 +34222,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108101</v>
+        <v>75.34849544108113</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149909</v>
+        <v>164.1788911149911</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459887</v>
+        <v>240.9529390459889</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012619</v>
+        <v>300.0959021012621</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417382</v>
+        <v>309.6121800417384</v>
       </c>
       <c r="O5" t="n">
-        <v>278.888041189623</v>
+        <v>278.8880411896232</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353447</v>
+        <v>203.1749950353448</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446242</v>
+        <v>103.9166198446243</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.9601568170623</v>
+        <v>25.86912147665353</v>
       </c>
       <c r="K6" t="n">
-        <v>137.91818354159</v>
+        <v>387.6239533881393</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078128</v>
+        <v>223.0597049423996</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229705</v>
+        <v>267.4044666229706</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3179548919658</v>
+        <v>289.0360539512401</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143406</v>
+        <v>241.9672840143407</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934026</v>
+        <v>174.6717278934027</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107661</v>
+        <v>66.33999361107666</v>
       </c>
       <c r="R6" t="n">
-        <v>0.195757914430871</v>
+        <v>0.1957579144308994</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236934</v>
+        <v>2.444126207236963</v>
       </c>
       <c r="K7" t="n">
         <v>135.1647700771088</v>
@@ -35100,10 +35102,10 @@
         <v>229.0516777768675</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325201</v>
+        <v>251.9969425325202</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171832</v>
+        <v>251.4945300171833</v>
       </c>
       <c r="O7" t="n">
         <v>216.1178277628437</v>
@@ -35112,7 +35114,7 @@
         <v>161.1678722819045</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691721</v>
+        <v>27.30642203691725</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L9" t="n">
-        <v>562.7107934893645</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35270,7 +35272,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36449,7 +36451,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36926,7 +36928,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -37148,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37394,7 +37396,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37868,7 +37870,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193706</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
